--- a/_gen_outputs/xacml/xacml3_2.xml.xlsx
+++ b/_gen_outputs/xacml/xacml3_2.xml.xlsx
@@ -453,22 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;PolicySet xmlns="urn:oasis:names:tc:xacml:3.0:core:schema:wd-17" PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist" Version="1.0"&gt;
-    &lt;Target/&gt;
-    &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.0" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="isconflicted" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.0.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -514,10 +499,10 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc_chair'). can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc_chair')."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, Action) :- User(U), Resource(Res), Action(Action), has_role(U, pc_chair), (Action = read; Action = create)."
 }</t>
         </is>
       </c>
@@ -569,10 +554,10 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(P).",
-    "datalog_objects": "Meeting(M).",
-    "datalog_relationships": "is_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_read(P, M) :- PC_Member(P), Meeting(M), is_meeting(M)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nhas_attribute(R, \"isMeeting\", \"true\") :- Resource(R).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-member\"), has_attribute(R, \"isMeeting\", \"true\")."
 }</t>
         </is>
       </c>
@@ -614,20 +599,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.1" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="subject" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.1.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.1.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.1.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -662,7 +634,7 @@
     "datalog_subjects": "Subject(S).",
     "datalog_objects": "Resource(R).",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, read) :- Subject(S), Resource(R), action(S, read)."
+    "datalog_actions": "can_access(S, R, read) :- Subject(S), Resource(R)."
 }</t>
         </is>
       </c>
@@ -670,9 +642,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.1.0.1" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.1.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.1.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -718,10 +688,10 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(R).",
+    "datalog_subjects": "Subject(S).",
     "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, R) :- Subject(S), Role(R).",
-    "datalog_actions": "can_access(S, O, Action) :- Subject(S), Object(O), Action(Action), has_role(S, 'pc_chair'), (Action = 'read'; Action = 'create')."
+    "datalog_relationships": "has_role(S, \"pc_chair\") :- Subject(S).",
+    "datalog_actions": "can_access(S, O, \"read\") :- Subject(S), Object(O), has_role(S, \"pc_chair\").\ncan_access(S, O, \"create\") :- Subject(S), Object(O), has_role(S, \"pc_chair\")."
 }</t>
         </is>
       </c>
@@ -869,20 +839,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.2" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;create&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="action" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.2.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.2.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.2.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -922,10 +879,10 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, create) :- User(U), Resource(Res), has_role(U, pc-member). can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-member)."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).",
+    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), has_role(S, 'pc-member')."
 }</t>
         </is>
       </c>
@@ -981,8 +938,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc_chair\")."
+    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
+    "datalog_actions": "can_access(U, create, R) :- User(U), Resource(R), has_role(U, pc_chair)."
 }</t>
         </is>
       </c>
@@ -1030,10 +987,10 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Paper(P).",
-    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
-    "datalog_actions": "can_create(U, P) :- User(U), Paper(P), has_role(U, pc_chair)."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc_chair) :- Subject(S).",
+    "datalog_actions": "can_access(S, O, create) :- Subject(S), Object(O), has_role(S, pc_chair)."
 }</t>
         </is>
       </c>
@@ -1041,9 +998,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.2.0.4" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.2.0.4.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.2.0.4.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -1083,10 +1038,10 @@
       <c r="C13" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(S, R).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc-chair') :- Subject(S), Role(S, R), R = 'pc-chair'.",
-    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), has_role(S, 'pc-chair')."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
 }</t>
         </is>
       </c>
@@ -1138,10 +1093,10 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCMember(P).",
+    "datalog_subjects": "PC_Member(S).",
     "datalog_objects": "Meeting(M).",
     "datalog_relationships": "is_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_read(P, M) :- PCMember(P), Meeting(M), is_meeting(M)."
+    "datalog_actions": "can_read(S, M) :- PC_Member(S), Meeting(M), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -1175,7 +1130,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "deny_access(S, O, A) :- false."
+    "datalog_actions": ""
 }</t>
         </is>
       </c>
@@ -1183,20 +1138,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;create&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="action" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.3.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.3.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -1240,10 +1182,10 @@
       <c r="C16" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Resource(R).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_subject_user_equal_resource_user(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, \"pc-member\"), is_subject_user_equal_resource_user(U, R).\ncan_read(U, R) :- User(U), Resource(R), has_role(U, \"pc-member\"), is_subject_user_equal_resource_user(U, R)."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).\nis_eq_subjUserId_resUserId(U, Res) :- User(U), Resource(Res).",
+    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), Role(R), has_role(U, R), is_eq_subjUserId_resUserId(U, Res), R = \"pc-member\"."
 }</t>
         </is>
       </c>
@@ -1251,9 +1193,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3.0.3" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.3.0.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.3.0.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -1293,10 +1233,10 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(S, R).",
-    "datalog_objects": "Object(O), Action(A).",
-    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S), Role(S, 'pc-member').",
-    "datalog_actions": "can_access(S, O, A) :- Subject(S), Object(O), Action(A), has_role(S, 'pc-member'), A = 'read'."
+    "datalog_subjects": "PC_Member(S).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "",
+    "datalog_actions": "can_read(S, R) :- PC_Member(S), Resource(R)."
 }</t>
         </is>
       </c>
@@ -1397,10 +1337,10 @@
       <c r="C19" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).\nis_owner(U, Res) :- User(U), Resource(Res).",
-    "datalog_actions": "can_access(U, Res) :- User(U), Resource(Res), has_role(U, 'pc-member'), is_owner(U, Res)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nis_same_user(U, R) :- User(U), Resource(R).",
+    "datalog_actions": "deny_access(U, R) :- User(U), Resource(R), has_role(U, 'pc-member'), is_same_user(U, R)."
 }</t>
         </is>
       </c>
@@ -1448,10 +1388,10 @@
       <c r="C20" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, create) :- User(U), Resource(Res), has_role(U, pc_chair)."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc_chair) :- Subject(S).",
+    "datalog_actions": "can_access(S, O, create) :- Subject(S), Object(O), has_role(S, pc_chair)."
 }</t>
         </is>
       </c>
@@ -1459,9 +1399,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.3.0.3.4" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.3.0.3.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.3.0.3.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -1507,10 +1445,10 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
-    "datalog_actions": "can_access(U, R, read) :- User(U), Resource(R), has_role(U, pc_chair).\ncan_access(U, R, create) :- User(U), Resource(R), has_role(U, pc_chair)."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, Action) :- User(U), Resource(Res), Action(Action), has_role(U, 'pc_chair'), (Action = 'read'; Action = 'create')."
 }</t>
         </is>
       </c>
@@ -1558,10 +1496,10 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc-chair') :- Subject(S).",
-    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), has_role(S, 'pc-chair')."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
 }</t>
         </is>
       </c>
@@ -1613,10 +1551,10 @@
       <c r="C23" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(U, R).",
+    "datalog_subjects": "PCMember(P).",
     "datalog_objects": "Meeting(M).",
     "datalog_relationships": "is_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), Role(U, \"pc-member\"), is_meeting(M)."
+    "datalog_actions": "can_read(P, M) :- PCMember(P), Meeting(M), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -1650,7 +1588,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "deny_all :- false."
+    "datalog_actions": ""
 }</t>
         </is>
       </c>
@@ -1658,20 +1596,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;create&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="action" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.4.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.4.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -1715,10 +1640,10 @@
       <c r="C25" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Resource(R).",
+    "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_subject_user_equal_resource_user(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-member\"), is_subject_user_equal_resource_user(U, R).\ncan_access(U, R, \"read\") :- User(U), Resource(R)."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_same_user(U, R) :- User(U), Resource(R).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-member\"), is_same_user(U, R)."
 }</t>
         </is>
       </c>
@@ -1726,9 +1651,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4.0.3" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.4.0.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.4.0.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -1768,10 +1691,10 @@
       <c r="C26" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "pc_member(S).",
-    "datalog_objects": "resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, read) :- pc_member(S), resource(R)."
+    "datalog_subjects": "Subject(S), Role(S, R).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, R) :- Subject(S), Role(S, R).",
+    "datalog_actions": "can_access(S, O, Action) :- Subject(S), Object(O), has_role(S, 'pc-member'), Action = 'read'."
 }</t>
         </is>
       </c>
@@ -1825,10 +1748,10 @@
       <c r="C27" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(U, R).",
-    "datalog_objects": "Object(O).",
+    "datalog_subjects": "User(U), Role(U, \"pc_chair\").",
+    "datalog_objects": "Resource(R).",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(U, O, Action) :- User(U), Object(O), Role(U, 'pc_chair'), Action = 'create'."
+    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), Role(U, \"pc_chair\")."
 }</t>
         </is>
       </c>
@@ -1874,8 +1797,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nis_same_user(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, 'pc-member'), is_same_user(U, R)."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_subject_user_id_equal_to_resource_user_id(U, R) :- User(U), Resource(R).",
+    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, \"pc-member\"), is_subject_user_id_equal_to_resource_user_id(U, R)."
 }</t>
         </is>
       </c>
@@ -1923,10 +1846,10 @@
       <c r="C29" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
-    "datalog_actions": "can_access(U, create, R) :- User(U), Resource(R), has_role(U, pc_chair)."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, create) :- User(U), Resource(Res), has_role(U, pc_chair)."
 }</t>
         </is>
       </c>
@@ -1934,9 +1857,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.4.0.3.4" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.4.0.3.4.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.4.0.3.4.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -1976,10 +1897,10 @@
       <c r="C30" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair')."
 }</t>
         </is>
       </c>
@@ -2013,7 +1934,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": ""
+    "datalog_actions": "deny_action(S, O, A) :- Subject(S), Object(O), Action(A), false."
 }</t>
         </is>
       </c>
@@ -2021,22 +1942,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.5" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="ismeeting" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.5.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.5.0.0" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.5.0.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.5.0.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -2082,10 +1988,10 @@
       <c r="C32" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Meeting(M).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_create(U, M) :- User(U), Meeting(M), has_role(U, 'pc_chair')."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc_chair) :- Subject(S).",
+    "datalog_actions": "can_access(S, O, create) :- Subject(S), Object(O), has_role(S, pc_chair)."
 }</t>
         </is>
       </c>
@@ -2130,9 +2036,9 @@
         <is>
           <t>{
     "datalog_subjects": "User(U).",
-    "datalog_objects": "Paper(P).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_eq_subjUserId_resUserId(U) :- User(U).",
-    "datalog_actions": "can_access(U, P) :- User(U), Paper(P), has_role(U, \"pc-member\"), is_eq_subjUserId_resUserId(U)."
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "role(U, 'pc-member') :- User(U).\nisEq_subjUserId_resUserId(U, R) :- User(U), Resource(R).",
+    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), role(U, 'pc-member'), isEq_subjUserId_resUserId(U, R)."
 }</t>
         </is>
       </c>
@@ -2140,9 +2046,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.5.0.0.4" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.5.0.0.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.5.0.0.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -2190,8 +2094,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
-    "datalog_actions": "can_access(U, R, read) :- User(U), Resource(R), has_role(U, pc_chair). can_access(U, R, create) :- User(U), Resource(R), has_role(U, pc_chair)."
+    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc_chair'). can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc_chair')."
 }</t>
         </is>
       </c>
@@ -2239,10 +2143,10 @@
       <c r="C35" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc-chair) :- Subject(S).",
+    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), has_role(S, pc-chair)."
 }</t>
         </is>
       </c>
@@ -2294,10 +2198,10 @@
       <c r="C36" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(S).",
+    "datalog_subjects": "PCMember(S).",
     "datalog_objects": "Meeting(M).",
     "datalog_relationships": "is_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_read(S, M) :- PC_Member(S), Meeting(M), is_meeting(M)."
+    "datalog_actions": "can_read(S, M) :- PCMember(S), Meeting(M), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -2331,7 +2235,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "deny(S, O, A) :- Subject(S), Object(O), Action(A)."
+    "datalog_actions": "deny_all :- false."
 }</t>
         </is>
       </c>
@@ -2339,20 +2243,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.6" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pc_chair&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="role" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.6.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.6.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.6.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -2398,10 +2289,10 @@
       <c r="C38" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Action(A).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_perform(U, A) :- User(U), Action(A), has_role(U, 'pc_chair'), (A = 'read'; A = 'create')."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-chair\").\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-chair\")."
 }</t>
         </is>
       </c>
@@ -2461,8 +2352,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_eq_subjUserId_resUserId(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-member\"), is_eq_subjUserId_resUserId(U, R).\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-member\"), is_eq_subjUserId_resUserId(U, R)."
+    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nis_eq_subjUserId_resUserId(U, R) :- User(U), Resource(R).",
+    "datalog_actions": "can_access(U, R, Action) :- User(U), Resource(R), has_role(U, 'pc-member'), is_eq_subjUserId_resUserId(U, R), (Action = 'read'; Action = 'create')."
 }</t>
         </is>
       </c>
@@ -2470,9 +2361,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.6.0.3" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.6.0.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.6.0.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -2512,10 +2401,10 @@
       <c r="C40" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, \"pc-member\") :- Subject(S).",
-    "datalog_actions": "can_access(S, O, \"read\") :- Subject(S), Object(O), has_role(S, \"pc-member\")."
+    "datalog_subjects": "PCMember(S).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "",
+    "datalog_actions": "can_access(S, R, read) :- PCMember(S), Resource(R)."
 }</t>
         </is>
       </c>
@@ -2569,10 +2458,10 @@
       <c r="C41" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
+    "datalog_subjects": "User(U), Role(R).",
     "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, pc_chair) :- Subject(S).",
-    "datalog_actions": "can_perform(S, create, O) :- Subject(S), Object(O), has_role(S, pc_chair)."
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, O, create) :- User(U), Object(O), has_role(U, pc_chair)."
 }</t>
         </is>
       </c>
@@ -2616,10 +2505,10 @@
       <c r="C42" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
+    "datalog_subjects": "Subject(S), User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nis_eq_subjUserId_resUserId(U) :- User(U).",
-    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, 'pc-member'), is_eq_subjUserId_resUserId(U)."
+    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S). is_same_user(S, U) :- Subject(S), User(U).",
+    "datalog_actions": "deny_access(S, R) :- Subject(S), Resource(R), has_role(S, 'pc-member'), is_same_user(S, U)."
 }</t>
         </is>
       </c>
@@ -2627,9 +2516,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.6.0.3.4" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.6.0.3.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.6.0.3.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -2677,8 +2564,8 @@
           <t>{
     "datalog_subjects": "Subject(S).",
     "datalog_objects": "Object(O).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), has_role(S, pc_chair). can_access(S, O, create) :- Subject(S), Object(O), has_role(S, pc_chair)."
+    "datalog_relationships": "has_role(S, pc_chair) :- Subject(S).",
+    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), has_role(S, pc_chair).\ncan_access(S, O, create) :- Subject(S), Object(O), has_role(S, pc_chair)."
 }</t>
         </is>
       </c>
@@ -2730,10 +2617,10 @@
       <c r="C44" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(S).",
+    "datalog_subjects": "PCMember(P).",
     "datalog_objects": "Meeting(M).",
     "datalog_relationships": "is_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_read(S, M) :- PC_Member(S), Meeting(M), is_meeting(M)."
+    "datalog_actions": "can_read(P, M) :- PCMember(P), Meeting(M), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -2767,7 +2654,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": ""
+    "datalog_actions": "deny_action(S, O, A) :- Subject(S), Object(O), Action(A), false."
 }</t>
         </is>
       </c>
@@ -2775,20 +2662,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.7" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="isconflicted" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.7.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.7.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.7.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -2832,10 +2706,10 @@
       <c r="C46" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Resource(R).",
+    "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "is_conflicted(U, R) :- User(U), Resource(R).\nis_eq_subjUserId_resUserId(U, R) :- User(U), Resource(R).\nhas_role(U, \"pc-member\") :- User(U).",
-    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, \"pc-member\"), is_eq_subjUserId_resUserId(U, R), not is_conflicted(U, R)."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_eq_subjUserId_resUserId(U, R) :- User(U), Resource(R).",
+    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-member\"), is_eq_subjUserId_resUserId(U, R)."
 }</t>
         </is>
       </c>
@@ -2869,7 +2743,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "deny_action(S, O, A) :- false."
+    "datalog_actions": "deny_all :- false."
 }</t>
         </is>
       </c>
@@ -2877,9 +2751,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.7.0.3" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.7.0.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.7.0.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -2928,7 +2800,7 @@
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
     "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair'). can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc-chair')."
+    "datalog_actions": "can_access(U, R, Action) :- User(U), Resource(R), has_role(U, 'pc-chair'), (Action = 'read'; Action = 'create')."
 }</t>
         </is>
       </c>
@@ -2988,8 +2860,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nis_same_user(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-member'), is_same_user(U, R).\ncan_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc-member'), is_same_user(U, R)."
+    "datalog_relationships": "has_role(U, 'pc-member') :- User(U). is_eq_subjUserId_resUserId(U) :- User(U).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-member'), is_eq_subjUserId_resUserId(U). can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc-member'), is_eq_subjUserId_resUserId(U)."
 }</t>
         </is>
       </c>
@@ -2997,9 +2869,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.7.0.3.3" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.7.0.3.3.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.7.0.3.3.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -3096,10 +2966,10 @@
       <c r="C51" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, create, Res) :- User(U), Resource(Res), has_role(U, pc_chair)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
+    "datalog_actions": "can_access(U, create, R) :- User(U), Resource(R), has_role(U, pc_chair)."
 }</t>
         </is>
       </c>
@@ -3107,9 +2977,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.7.0.3.3.4" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;Policy PolicyId="RPSlist.7.0.3.3.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.7.0.3.3.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                             &lt;Target&gt;
 &lt;AnyOf&gt;
     &lt;AllOf&gt;
@@ -3155,10 +3023,10 @@
       <c r="C52" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, Action) :- User(U), Resource(Res), Action(Action), has_role(U, 'pc_chair'), (Action = 'read'; Action = 'create')."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, Action) :- User(U), Resource(R), has_role(U, \"pc_chair\"), (Action = \"read\"; Action = \"create\")."
 }</t>
         </is>
       </c>
@@ -3206,10 +3074,10 @@
       <c r="C53" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
+    "datalog_subjects": "User(U), Role(R).",
     "datalog_objects": "Paper(P).",
-    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
-    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), has_role(U, \"pc-chair\")."
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-chair')."
 }</t>
         </is>
       </c>
@@ -3217,20 +3085,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.8" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pc_chair&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="role" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.8.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.8.0.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.8.0.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target/&gt;
                 &lt;Rule Effect="Deny" RuleId="RPSlist.8.0.3.r.1"&gt;
                     &lt;Target/&gt;
@@ -3253,10 +3108,10 @@
       <c r="C54" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
+    "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "can_access(S) :- Subject(S), role(S, \"pc_chair\")."
+    "datalog_actions": "deny(S, O, A) :- subject(S), object(O), action(A)."
 }</t>
         </is>
       </c>
@@ -3264,9 +3119,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.8.0.4" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.8.0.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.8.0.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -3312,10 +3165,10 @@
       <c r="C55" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-chair\").\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-chair\")."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, Action) :- User(U), Resource(Res), has_role(U, 'pc-chair'), Action in ['read', 'create']."
 }</t>
         </is>
       </c>
@@ -3375,8 +3228,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_same_user(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-member\"), is_same_user(U, R).\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-member\"), is_same_user(U, R)."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_eq_subjUserId_resUserId(U) :- User(U).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-member\"), is_eq_subjUserId_resUserId(U).\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-member\"), is_eq_subjUserId_resUserId(U)."
 }</t>
         </is>
       </c>
@@ -3384,9 +3237,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.8.0.4.3" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.8.0.4.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.8.0.4.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -3426,10 +3277,10 @@
       <c r="C57" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).",
-    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), has_role(S, 'pc-member')."
+    "datalog_subjects": "PCMember(P).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "",
+    "datalog_actions": "can_read(P, R) :- PCMember(P), Resource(R)."
 }</t>
         </is>
       </c>
@@ -3437,9 +3288,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.8.0.4.3.4" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;Policy PolicyId="RPSlist.8.0.4.3.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.8.0.4.3.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                             &lt;Target&gt;
 &lt;AnyOf&gt;
     &lt;AllOf&gt;
@@ -3485,10 +3334,10 @@
       <c r="C58" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc_chair').\ncan_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc_chair')."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, 'pc_chair') :- Subject(S).",
+    "datalog_actions": "can_access(S, O, Action) :- Subject(S), Object(O), has_role(S, 'pc_chair'), (Action = 'read'; Action = 'create')."
 }</t>
         </is>
       </c>
@@ -3540,10 +3389,10 @@
       <c r="C59" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(P).",
+    "datalog_subjects": "User(U).",
     "datalog_objects": "Meeting(M).",
-    "datalog_relationships": "is_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_read(P, M) :- PC_Member(P), Meeting(M), is_meeting(M)."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_meeting(M) :- Meeting(M).",
+    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), has_role(U, \"pc-member\"), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -3551,20 +3400,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.9" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pc_chair&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="role" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.9.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.9.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.9.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -3604,10 +3440,10 @@
       <c r="C60" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc_chair\")."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Paper(P).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_create(U, P) :- User(U), Paper(P), has_role(U, \"pc-chair\")."
 }</t>
         </is>
       </c>
@@ -3615,9 +3451,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.9.0.3" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.9.0.3.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.9.0.3.3" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target/&gt;
                     &lt;Rule Effect="Deny" RuleId="RPSlist.9.0.3.3.r.1"&gt;
                         &lt;Target/&gt;
@@ -3643,7 +3477,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": ""
+    "datalog_actions": "deny_all :- false."
 }</t>
         </is>
       </c>
@@ -3651,22 +3485,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.10" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;create&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="action" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.10.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.10.0.0" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.10.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.10.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -3712,10 +3531,10 @@
       <c r="C62" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, create) :- User(U), Resource(Res), has_role(U, pc-chair) ; has_role(U, pc-member)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U). has_role(U, 'pc-member') :- User(U).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), (has_role(U, 'pc-chair'); has_role(U, 'pc-member'))."
 }</t>
         </is>
       </c>
@@ -3767,10 +3586,10 @@
       <c r="C63" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(S, pc_chair) :- Subject(S).\nis_eq_subjUserId_resUserId(S, U) :- Subject(S), User(U).",
-    "datalog_actions": "can_read(S, R) :- Subject(S), Resource(R), has_role(S, pc_chair), is_eq_subjUserId_resUserId(S, U)."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc_chair) :- Subject(S).\nis_eq_subjUserId_resUserId(S) :- Subject(S).",
+    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), has_role(S, pc_chair), is_eq_subjUserId_resUserId(S)."
 }</t>
         </is>
       </c>
@@ -3778,9 +3597,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.10.0.0.2" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.10.0.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.10.0.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -3879,10 +3696,10 @@
       <c r="C65" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).\nhas_attribute(O, 'ismeeting', 'true') :- Object(O).",
-    "datalog_actions": "can_perform(S, O, 'read') :- Subject(S), Object(O), has_role(S, 'pc-member'), has_attribute(O, 'ismeeting', 'true')."
+    "datalog_subjects": "User(U), Role(U, R).",
+    "datalog_objects": "Meeting(M).",
+    "datalog_relationships": "is_meeting(M) :- Meeting(M).",
+    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), Role(U, \"pc-member\"), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -3932,8 +3749,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc-member')."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-member\")."
 }</t>
         </is>
       </c>
@@ -3941,9 +3758,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.10.0.0.2.3" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;Policy PolicyId="RPSlist.10.0.0.2.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.10.0.0.2.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                             &lt;Target&gt;
 &lt;AnyOf&gt;
     &lt;AllOf&gt;
@@ -3989,10 +3804,10 @@
       <c r="C67" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc_chair'). can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc_chair')."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, Action) :- User(U), Resource(Res), has_role(U, 'pc_chair'), (Action = 'read'; Action = 'create')."
 }</t>
         </is>
       </c>
@@ -4042,8 +3857,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Paper(P).",
-    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
-    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), has_role(U, \"pc-chair\")."
+    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
+    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-chair')."
 }</t>
         </is>
       </c>
@@ -4095,10 +3910,10 @@
       <c r="C69" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(S).",
+    "datalog_subjects": "User(U).",
     "datalog_objects": "Meeting(M).",
-    "datalog_relationships": "is_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_read(S, M) :- PC_Member(S), Meeting(M), is_meeting(M)."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_meeting(M) :- Meeting(M).",
+    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), has_role(U, \"pc-member\"), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -4140,20 +3955,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="isconflicted" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.11.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.11.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -4197,10 +3999,10 @@
       <c r="C71" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc_chair), is_conflicted(true), is_eq_subjUserId_resUserId(true)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc_chair\")."
 }</t>
         </is>
       </c>
@@ -4208,9 +4010,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11.0.2" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.11.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.11.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -4261,9 +4061,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.11.0.2.3" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.11.0.2.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.11.0.2.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -4309,10 +4107,10 @@
       <c r="C73" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc_chair\").\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc_chair\")."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, 'pc_chair') :- Subject(S).",
+    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), has_role(S, 'pc_chair').\ncan_access(S, O, 'create') :- Subject(S), Object(O), has_role(S, 'pc_chair')."
 }</t>
         </is>
       </c>
@@ -4354,22 +4152,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.12" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="subject" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.12.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.12.0.0" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.12.0.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.12.0.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -4413,10 +4196,10 @@
       <c r="C75" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
+    "datalog_subjects": "Subject(S), User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc_chair'), is_owner(U, R)."
+    "datalog_relationships": "has_role(S, pc_chair) :- Subject(S).\nis_eq_subjUserId_resUserId(S, U) :- Subject(S), User(U).",
+    "datalog_actions": "can_access(S, R, read) :- Subject(S), Resource(R), has_role(S, pc_chair), is_eq_subjUserId_resUserId(S, U)."
 }</t>
         </is>
       </c>
@@ -4424,9 +4207,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.12.0.0.2" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.12.0.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.12.0.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -4476,8 +4257,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, pc_member) :- User(U).\nhas_role(U, pc_chair) :- User(U).",
-    "datalog_actions": "can_access(U, R, read) :- User(U), Resource(R), (has_role(U, pc_member); has_role(U, pc_chair))."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nhas_role(U, \"pc_chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), (has_role(U, \"pc-member\") ; has_role(U, \"pc_chair\"))."
 }</t>
         </is>
       </c>
@@ -4528,7 +4309,7 @@
     "datalog_subjects": "User(U), Role(R).",
     "datalog_objects": "Resource(Res).",
     "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, create) :- User(U), Resource(Res), has_role(U, pc_member)."
+    "datalog_actions": "can_access(U, Res, create) :- User(U), Resource(Res), has_role(U, pc-member)."
 }</t>
         </is>
       </c>
@@ -4536,9 +4317,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.12.0.0.2.3" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;Policy PolicyId="RPSlist.12.0.0.2.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.12.0.0.2.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                             &lt;Target&gt;
 &lt;AnyOf&gt;
     &lt;AllOf&gt;
@@ -4584,10 +4363,10 @@
       <c r="C78" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc_chair\").\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc_chair\")."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc_chair) :- Subject(S).",
+    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), has_role(S, pc_chair). can_access(S, O, create) :- Subject(S), Object(O), has_role(S, pc_chair)."
 }</t>
         </is>
       </c>
@@ -4638,7 +4417,7 @@
     "datalog_subjects": "User(U), Role(R).",
     "datalog_objects": "Resource(Res).",
     "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
+    "datalog_actions": "can_access(U, Res, Action) :- User(U), Resource(Res), Action(Action), has_role(U, 'pc-chair'), Action = 'read'."
 }</t>
         </is>
       </c>
@@ -4680,22 +4459,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.13" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="isconflicted" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.13.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.13.0.1" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.13.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.13.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -4737,8 +4501,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc-chair')."
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-chair\")."
 }</t>
         </is>
       </c>
@@ -4796,8 +4560,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U). has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), (has_role(U, 'pc-member'); has_role(U, 'pc_chair'))."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nhas_role(U, \"pc_chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), (has_role(U, \"pc-member\") ; has_role(U, \"pc_chair\"))."
 }</t>
         </is>
       </c>
@@ -4845,10 +4609,10 @@
       <c r="C83" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCMember(P).",
+    "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(P, R, create) :- PCMember(P), Resource(R)."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-member\")."
 }</t>
         </is>
       </c>
@@ -4856,9 +4620,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.13.0.1.3" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.13.0.1.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.13.0.1.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -4904,10 +4666,10 @@
       <c r="C84" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, \"pc_chair\") :- Subject(S).",
-    "datalog_actions": "can_access(S, O, \"read\") :- Subject(S), Object(O), has_role(S, \"pc_chair\"). can_access(S, O, \"create\") :- Subject(S), Object(O), has_role(S, \"pc_chair\")."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
+    "datalog_actions": "can_access(U, R, read) :- User(U), Resource(R), has_role(U, pc_chair).\ncan_access(U, R, create) :- User(U), Resource(R), has_role(U, pc_chair)."
 }</t>
         </is>
       </c>
@@ -4955,10 +4717,10 @@
       <c r="C85" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(R).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, R) :- Subject(S), Role(R).",
-    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), has_role(S, pc-chair)."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
 }</t>
         </is>
       </c>
@@ -5011,9 +4773,9 @@
         <is>
           <t>{
     "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nhas_attribute(U, \"isMeeting\", \"true\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-member\"), has_attribute(U, \"isMeeting\", \"true\")."
+    "datalog_objects": "Meeting(M).",
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_meeting(M) :- Meeting(M).",
+    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), has_role(U, \"pc-member\"), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -5055,20 +4817,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.14" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="ismeeting" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.14.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.14.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.14.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -5112,10 +4861,10 @@
       <c r="C88" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
+    "datalog_subjects": "PC_Member(S).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nis_conflicted(U) :- User(U).\nis_meeting(R) :- Resource(R).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-member'), is_conflicted(U), is_meeting(R)."
+    "datalog_relationships": "is_conflicted(S) :- PC_Member(S).",
+    "datalog_actions": "can_read(S, R) :- PC_Member(S), Resource(R), is_conflicted(S)."
 }</t>
         </is>
       </c>
@@ -5167,10 +4916,10 @@
       <c r="C89" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
+    "datalog_subjects": "PCMember(P).",
     "datalog_objects": "Meeting(M).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), has_role(U, \"pc-member\"), is_meeting(M)."
+    "datalog_relationships": "is_meeting(M) :- Meeting(M).",
+    "datalog_actions": "can_read(P, M) :- PCMember(P), Meeting(M), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -5213,7 +4962,7 @@
     "datalog_subjects": "Subject(S).",
     "datalog_objects": "Object(O).",
     "datalog_relationships": "is_conflicted(S, O) :- Subject(S), Object(O).",
-    "datalog_actions": "deny(S, O) :- Subject(S), Object(O), is_conflicted(S, O)."
+    "datalog_actions": "deny_access(S, O) :- Subject(S), Object(O), is_conflicted(S, O)."
 }</t>
         </is>
       </c>
@@ -5221,9 +4970,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.14.0.4" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.14.0.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.14.0.4.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -5263,10 +5010,10 @@
       <c r="C91" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc-chair') :- Subject(S).",
-    "datalog_actions": "can_access(S, O, 'create') :- Subject(S), Object(O), has_role(S, 'pc-chair')."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, create) :- User(U), Resource(Res), has_role(U, pc-chair)."
 }</t>
         </is>
       </c>
@@ -5323,9 +5070,9 @@
         <is>
           <t>{
     "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nhas_action(U, R, \"read\") :- User(U), Resource(R).\nis_meeting(R) :- Resource(R).",
-    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, \"pc-member\"), has_action(U, R, \"read\"), is_meeting(R)."
+    "datalog_objects": "Meeting(M).",
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).",
+    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), has_role(U, \"pc-member\"), is_meeting(M, \"true\")."
 }</t>
         </is>
       </c>
@@ -5373,10 +5120,10 @@
       <c r="C93" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCMember(P).",
-    "datalog_objects": "",
+    "datalog_subjects": "PC_Member(S).",
+    "datalog_objects": "Resource(R).",
     "datalog_relationships": "",
-    "datalog_actions": "can_create(P) :- PCMember(P)."
+    "datalog_actions": "can_create(S, R) :- PC_Member(S), Resource(R)."
 }</t>
         </is>
       </c>
@@ -5384,9 +5131,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.14.0.4.3" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.14.0.4.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.14.0.4.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -5432,10 +5177,10 @@
       <c r="C94" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc_chair'). can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc_chair')."
+    "datalog_subjects": "User(U), Role(U, R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U), Role(U, 'pc_chair').",
+    "datalog_actions": "can_access(U, Res, 'read') :- User(U), Resource(Res), has_role(U, 'pc_chair'). can_access(U, Res, 'create') :- User(U), Resource(Res), has_role(U, 'pc_chair')."
 }</t>
         </is>
       </c>
@@ -5483,10 +5228,10 @@
       <c r="C95" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair')."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
 }</t>
         </is>
       </c>
@@ -5583,20 +5328,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.15" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="hassubmittedreviewforrespaper" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.15.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.15.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.15.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -5649,9 +5381,9 @@
         <is>
           <t>{
     "datalog_subjects": "User(U).",
-    "datalog_objects": "Paper(P).",
-    "datalog_relationships": "has_submitted_review_for_respaper(U, P) :- User(U), Paper(P).",
-    "datalog_actions": "can_access(U, P, Action) :- User(U), Paper(P), (Action = read; Action = create), (role(U) = pc-chair; role(U) = pc_chair), has_submitted_review_for_respaper(U, P)."
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).\nhas_role(U, \"pc_chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-chair\").\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-chair\").\ncan_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc_chair\").\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc_chair\")."
 }</t>
         </is>
       </c>
@@ -5694,7 +5426,7 @@
     "datalog_subjects": "Subject(S).",
     "datalog_objects": "Object(O).",
     "datalog_relationships": "is_conflicted(S, O) :- Subject(S), Object(O).",
-    "datalog_actions": "deny_access(S, O) :- Subject(S), Object(O), is_conflicted(S, O)."
+    "datalog_actions": "deny(S, O) :- Subject(S), Object(O), is_conflicted(S, O)."
 }</t>
         </is>
       </c>
@@ -5754,10 +5486,10 @@
       <c r="C100" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, pc-chair) :- Subject(S).\nhas_phase(O, discussion) :- Object(O).\nhas_action(S, read, O) :- Subject(S), Object(O).",
-    "datalog_actions": "can_access(S, O) :- Subject(S), Object(O), has_role(S, pc-chair), has_phase(O, discussion), has_action(S, read, O)."
+    "datalog_subjects": "Subject(S), has_role(S, pc-chair), has_attribute(S, isSubjectsMeeting, true).",
+    "datalog_objects": "Object(O), has_attribute(O, phase, discussion).",
+    "datalog_relationships": "",
+    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), has_role(S, pc-chair), has_attribute(S, isSubjectsMeeting, true), has_attribute(O, phase, discussion)."
 }</t>
         </is>
       </c>
@@ -5806,9 +5538,9 @@
         <is>
           <t>{
     "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), isSubjectsMeeting(S, true)."
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "isSubjectsMeeting(S) :- Subject(S).",
+    "datalog_actions": "can_access(S, R, read) :- Subject(S), Resource(R), isSubjectsMeeting(S)."
 }</t>
         </is>
       </c>
@@ -5842,7 +5574,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "deny(S, O, A) :- subject(S), object(O), action(A)."
+    "datalog_actions": ""
 }</t>
         </is>
       </c>
@@ -5850,9 +5582,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.15.0.5" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.15.0.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.15.0.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -5892,10 +5622,10 @@
       <c r="C103" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, \"pc-chair\") :- Subject(S).",
-    "datalog_actions": "can_access(S, O, \"create\") :- Subject(S), Object(O), has_role(S, \"pc-chair\")."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Action(A).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, A) :- User(U), Action(A), has_role(U, 'pc-chair'), A = 'create'."
 }</t>
         </is>
       </c>
@@ -6002,10 +5732,10 @@
       <c r="C105" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-member\")."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, create) :- User(U), Resource(Res), has_role(U, pc_member)."
 }</t>
         </is>
       </c>
@@ -6013,9 +5743,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.15.0.5.3" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.15.0.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.15.0.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -6061,10 +5789,10 @@
       <c r="C106" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc_chair\").\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc_chair\")."
+    "datalog_subjects": "Subject(S), Role(S, 'pc_chair').",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "",
+    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), Role(S, 'pc_chair'). can_access(S, O, 'create') :- Subject(S), Object(O), Role(S, 'pc_chair')."
 }</t>
         </is>
       </c>
@@ -6112,10 +5840,10 @@
       <c r="C107" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(R).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, R) :- Subject(S), Role(R).",
-    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), has_role(S, pc-chair)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair')."
 }</t>
         </is>
       </c>
@@ -6157,20 +5885,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.16" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;discussion&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="phase" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.16.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.16.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.16.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -6207,9 +5922,9 @@
         <is>
           <t>{
     "datalog_subjects": "User(U).",
-    "datalog_objects": "Discussion(D).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).\nnot_conflicted(U) :- User(U).",
-    "datalog_actions": "can_access(U, D) :- User(U), Discussion(D), has_role(U, 'pc-chair'), not_conflicted(U)."
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).\nhas_conflict(U, false) :- User(U).",
+    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, \"pc-chair\"), has_conflict(U, false)."
 }</t>
         </is>
       </c>
@@ -6263,10 +5978,10 @@
       <c r="C110" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_perform(U, Res, create) :- User(U), Resource(Res), has_role(U, pc-chair)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-chair\")."
 }</t>
         </is>
       </c>
@@ -6410,10 +6125,10 @@
       <c r="C112" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), User(U).",
+    "datalog_subjects": "PC_Member(S).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).\nis_conflicted(S, 'false') :- Subject(S).\nis_eq_subjUserId_resUserId(S, 'true') :- Subject(S).\nphase(R, 'discussion') :- Resource(R).\nhas_submitted_review_for_res_paper(S, R, 'true') :- Subject(S), Resource(R).\naction(S, R, 'create') :- Subject(S), Resource(R).",
-    "datalog_actions": "can_access(S, R, 'read') :- Subject(S), Resource(R), has_role(S, 'pc-member'), is_conflicted(S, 'false'), (is_eq_subjUserId_resUserId(S, 'true'); phase(R, 'discussion'); (phase(R, 'discussion'), has_submitted_review_for_res_paper(S, R, 'true')); action(S, R, 'create'))."
+    "datalog_relationships": "is_conflicted(S) :- PC_Member(S).\nis_eq_subjUserId_resUserId(S, R) :- PC_Member(S), Resource(R).\nphase(R, discussion) :- Resource(R).\nhas_submitted_review_for_res_paper(S, R) :- PC_Member(S), Resource(R).",
+    "datalog_actions": "can_access(S, R, read) :- PC_Member(S), Resource(R), not is_conflicted(S), is_eq_subjUserId_resUserId(S, R).\ncan_access(S, R, read) :- PC_Member(S), Resource(R), not is_conflicted(S), phase(R, discussion).\ncan_access(S, R, read) :- PC_Member(S), Resource(R), not is_conflicted(S), phase(R, discussion), has_submitted_review_for_res_paper(S, R).\ncan_access(S, R, create) :- PC_Member(S), Resource(R), not is_conflicted(S)."
 }</t>
         </is>
       </c>
@@ -6421,9 +6136,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.16.0.5" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.16.0.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.16.0.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -6463,10 +6176,10 @@
       <c r="C113" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Action(A).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_perform(U, A) :- User(U), Action(A), has_role(U, 'pc-chair'), A = 'create'."
+    "datalog_subjects": "PcChair(PC).",
+    "datalog_objects": "",
+    "datalog_relationships": "",
+    "datalog_actions": "can_create(PC) :- PcChair(PC)."
 }</t>
         </is>
       </c>
@@ -6522,10 +6235,10 @@
       <c r="C114" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(S).",
-    "datalog_objects": "Discussion(D).",
+    "datalog_subjects": "User(U), Role(U, R).",
+    "datalog_objects": "Resource(Res), Phase(Res, Ph).",
     "datalog_relationships": "",
-    "datalog_actions": "can_read(S, D) :- PC_Member(S), Discussion(D), phase(D, discussion)."
+    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), Role(U, pc-member), Phase(Res, discussion)."
 }</t>
         </is>
       </c>
@@ -6584,9 +6297,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.16.0.5.3" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.16.0.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.16.0.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -6632,10 +6343,10 @@
       <c r="C116" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
-    "datalog_actions": "can_access(U, R, read) :- User(U), Resource(R), has_role(U, pc_chair). can_access(U, R, create) :- User(U), Resource(R), has_role(U, pc_chair)."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, Action) :- User(U), Resource(Res), Action(Action), has_role(U, R), R = \"pc_chair\", (Action = \"read\"; Action = \"create\")."
 }</t>
         </is>
       </c>
@@ -6698,20 +6409,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.17" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;create&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="action" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.17.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.17.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.17.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -6745,8 +6443,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
-    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, 'pc-chair')."
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, \"pc-chair\")."
 }</t>
         </is>
       </c>
@@ -6754,9 +6452,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.17.0.1" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.17.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.17.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -6792,10 +6488,10 @@
       <c r="C119" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).\nnot_conflicted(U) :- User(U).",
-    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, 'pc-chair'), not_conflicted(U)."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, \"pc-chair\") :- Subject(S).\nnot_conflicted(S) :- Subject(S).",
+    "datalog_actions": "can_access(S, O) :- Subject(S), Object(O), has_role(S, \"pc-chair\"), not_conflicted(S)."
 }</t>
         </is>
       </c>
@@ -6856,9 +6552,9 @@
         <is>
           <t>{
     "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc-chair') :- Subject(S). has_role(S, 'pc_chair') :- Subject(S). is_subjects_meeting(S, 'true') :- Subject(S).",
-    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), (has_role(S, 'pc-chair'), is_subjects_meeting(S, 'true'); has_role(S, 'pc_chair'))."
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(S, 'pc-chair') :- Subject(S).\nhas_role(S, 'pc_chair') :- Subject(S).\nis_subjects_meeting(S) :- Subject(S).",
+    "datalog_actions": "can_access(S, R, 'read') :- Subject(S), Resource(R), (has_role(S, 'pc-chair') ; has_role(S, 'pc_chair')), is_subjects_meeting(S)."
 }</t>
         </is>
       </c>
@@ -6898,10 +6594,10 @@
       <c r="C121" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
+    "datalog_subjects": "Subject(S).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "is_conflicted(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "deny_access(U, R) :- User(U), Resource(R), is_conflicted(U, R)."
+    "datalog_relationships": "is_conflicted(S) :- Subject(S).",
+    "datalog_actions": "deny(S, R) :- Subject(S), Resource(R), is_conflicted(S)."
 }</t>
         </is>
       </c>
@@ -6983,8 +6679,8 @@
           <t>{
     "datalog_subjects": "User(U), Paper(P).",
     "datalog_objects": "Paper(P).",
-    "datalog_relationships": "has_submitted_review_for_paper(U, P) :- User(U), Paper(P).",
-    "datalog_actions": "can_access(U, P, read) :- User(U), Paper(P), role(U, pc_member), not is_conflicted(U), is_eq_subjUserId_resUserId(U, P, true).\ncan_access(U, P, create) :- User(U), Paper(P), role(U, pc_member), not is_conflicted(U), action(U, P, create), has_submitted_review_for_paper(U, P).\ncan_access(U, P, Action) :- User(U), Paper(P), role(U, pc_member), not is_conflicted(U), Action = read, is_eq_subjUserId_resUserId(U, P, true).\ncan_access(U, P, Action) :- User(U), Paper(P), role(U, pc_member), not is_conflicted(U), Action = create, action(U, P, create), has_submitted_review_for_paper(U, P).\nnot can_access(U, P, Action) :- User(U), Paper(P), role(U, pc_member), not is_conflicted(U), not (is_eq_subjUserId_resUserId(U, P, true) ; (action(U, P, create), has_submitted_review_for_paper(U, P)))."
+    "datalog_relationships": "is_pc_member(U) :- User(U).\nis_conflicted(U, P) :- User(U), Paper(P).\nis_eq_subjUserId_resUserId(U, P) :- User(U), Paper(P).\nhas_submitted_review_for_res_paper(U, P) :- User(U), Paper(P).",
+    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), is_pc_member(U), not is_conflicted(U, P), is_eq_subjUserId_resUserId(U, P).\ncan_create(U, P) :- User(U), Paper(P), is_pc_member(U), not is_conflicted(U, P), has_submitted_review_for_res_paper(U, P).\ncan_access(U, P) :- can_read(U, P).\ncan_access(U, P) :- can_create(U, P)."
 }</t>
         </is>
       </c>
@@ -6992,9 +6688,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.17.0.1.5" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.17.0.1.5.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.17.0.1.5.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -7034,10 +6728,10 @@
       <c r="C123" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-member\")."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, create) :- User(U), Resource(Res), has_role(U, pc_member)."
 }</t>
         </is>
       </c>
@@ -7045,20 +6739,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.18" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pc_chair&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="role" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.18.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.18.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.18.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -7102,10 +6783,10 @@
       <c r="C124" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Resource(R).",
+    "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "role(U, pc_chair) :- User(U).",
-    "datalog_actions": "can_access(U, R, create) :- User(U), Resource(R), role(U, pc_chair), isEq_subjUserId_resUserId(U, R, true)."
+    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).\nis_eq_subjUserId_resUserId(U) :- User(U).",
+    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, \"pc_chair\"), is_eq_subjUserId_resUserId(U)."
 }</t>
         </is>
       </c>
@@ -7113,9 +6794,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.18.0.2" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.18.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.18.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -7152,9 +6831,9 @@
         <is>
           <t>{
     "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).\nnot_conflicted(U) :- User(U).",
-    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, 'pc-chair'), not_conflicted(U)."
+    "datalog_objects": "Paper(P).",
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).\nhas_conflict(U, P) :- User(U), Paper(P).",
+    "datalog_actions": "can_access(U, P) :- User(U), Paper(P), has_role(U, \"pc-chair\"), not has_conflict(U, P)."
 }</t>
         </is>
       </c>
@@ -7195,9 +6874,9 @@
         <is>
           <t>{
     "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Resource(R).",
+    "datalog_objects": "Object(O).",
     "datalog_relationships": "is_conflicted(S) :- Subject(S).",
-    "datalog_actions": "deny_access(S, R) :- Subject(S), Resource(R), is_conflicted(S)."
+    "datalog_actions": "deny(S, O) :- Subject(S), Object(O), is_conflicted(S)."
 }</t>
         </is>
       </c>
@@ -7298,10 +6977,10 @@
       <c r="C127" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCMember(S), Subject(SUB).",
+    "datalog_subjects": "PCMember(P).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "is_conflicted(S) :- PCMember(S).\nphase(R, discussion) :- Resource(R).\nismeeting(R) :- Resource(R).\nhas_submitted_review_for_res_paper(S, R) :- PCMember(S), Resource(R).\nis_eq_subj_user_id_res_user_id(S, R) :- PCMember(S), Resource(R).",
-    "datalog_actions": "can_read(S, R) :- PCMember(S), Resource(R), not is_conflicted(S), is_eq_subj_user_id_res_user_id(S, R).\ncan_read(S, R) :- PCMember(S), Resource(R), not is_conflicted(S), phase(R, discussion).\ncan_read(S, R) :- PCMember(S), Resource(R), not is_conflicted(S), ismeeting(R), has_submitted_review_for_res_paper(S, R).\ncan_read(S, R) :- PCMember(S), Resource(R), not is_conflicted(S), Subject(SUB)."
+    "datalog_relationships": "isConflicted(P, R) :- PCMember(P), Resource(R).\nisEq_subjUserId_resUserId(P, R) :- PCMember(P), Resource(R).\nisPhaseDiscussion(R) :- Resource(R).\nisMeeting(R) :- Resource(R).\nhasSubmittedReviewForResPaper(P, R) :- PCMember(P), Resource(R).\nisSubject(P, R) :- PCMember(P), Resource(R).",
+    "datalog_actions": "can_read(P, R) :- PCMember(P), Resource(R), not isConflicted(P, R), (isEq_subjUserId_resUserId(P, R); isPhaseDiscussion(R); (isMeeting(R), hasSubmittedReviewForResPaper(P, R)); isSubject(P, R))."
 }</t>
         </is>
       </c>
@@ -7309,9 +6988,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.18.0.2.5" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.18.0.2.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.18.0.2.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -7351,10 +7028,10 @@
       <c r="C128" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
-    "datalog_actions": "can_access(U, O, \"create\") :- User(U), Object(O), has_role(U, \"pc-chair\")."
+    "datalog_subjects": "User(U), Role(U, R).",
+    "datalog_objects": "Action(A).",
+    "datalog_relationships": "",
+    "datalog_actions": "can_perform(U, A) :- User(U), Action(A), Role(U, \"pc-chair\"), A = \"create\"."
 }</t>
         </is>
       </c>
@@ -7402,10 +7079,10 @@
       <c r="C129" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
+    "datalog_subjects": "User(U), Role(R).",
     "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).",
-    "datalog_actions": "can_access(S, O, 'create') :- Subject(S), Object(O), has_role(S, 'pc-member')."
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_create(U, O) :- User(U), Object(O), has_role(U, 'pc-member')."
 }</t>
         </is>
       </c>
@@ -7413,9 +7090,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.18.0.2.5.3" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;Policy PolicyId="RPSlist.18.0.2.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.18.0.2.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                             &lt;Target&gt;
 &lt;AnyOf&gt;
     &lt;AllOf&gt;
@@ -7463,8 +7138,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc_chair').\ncan_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc_chair')."
+    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
+    "datalog_actions": "can_access(U, R, read) :- User(U), Resource(R), has_role(U, pc_chair). can_access(U, R, create) :- User(U), Resource(R), has_role(U, pc_chair)."
 }</t>
         </is>
       </c>
@@ -7512,10 +7187,10 @@
       <c r="C131" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
+    "datalog_subjects": "User(U), Role(U, R).",
     "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U), Role(U, \"pc-chair\").",
+    "datalog_actions": "can_access(U, Res, \"read\") :- User(U), Resource(Res), has_role(U, \"pc-chair\")."
 }</t>
         </is>
       </c>
@@ -7567,10 +7242,10 @@
       <c r="C132" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(U, R).",
-    "datalog_objects": "Meeting(M), Action(A).",
-    "datalog_relationships": "is_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_access(U, M, A) :- User(U), Meeting(M), Action(A), Role(U, 'pc-member'), is_meeting(M), A = 'read'."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nhas_attribute(U, \"isMeeting\", \"true\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-member\"), has_attribute(U, \"isMeeting\", \"true\")."
 }</t>
         </is>
       </c>
@@ -7612,20 +7287,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="ismeeting" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.19.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.19.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -7675,8 +7337,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nis_meeting(R) :- Resource(R).\nis_phase(R, 'discussion') :- Resource(R).\nis_subject_user_id_equal_resource_user_id(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, 'pc-member'), is_meeting(R), is_phase(R, 'discussion'), is_subject_user_id_equal_resource_user_id(U, R)."
+    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_same_user(U, R) :- User(U), Resource(R).\nhas_phase(R, \"discussion\") :- Resource(R).",
+    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, \"pc-member\"), is_same_user(U, R), has_phase(R, \"discussion\")."
 }</t>
         </is>
       </c>
@@ -7684,9 +7346,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.19.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.19.0.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -7720,8 +7380,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
-    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, \"pc-chair\")."
+    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
+    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, 'pc-chair')."
 }</t>
         </is>
       </c>
@@ -7729,9 +7389,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1.1" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.19.0.1.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.19.0.1.1.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -7769,8 +7427,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Paper(P).",
-    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).\nhas_conflict(U, P) :- User(U), Paper(P).",
-    "datalog_actions": "can_access(U, P) :- User(U), Paper(P), has_role(U, \"pc-chair\"), not has_conflict(U, P)."
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).\nnot_conflicted(U) :- User(U), not has_conflict(U).",
+    "datalog_actions": "can_access(U, P) :- User(U), Paper(P), has_role(U, \"pc-chair\"), not_conflicted(U)."
 }</t>
         </is>
       </c>
@@ -7830,10 +7488,10 @@
       <c r="C137" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(U, role).",
-    "datalog_objects": "Action(A).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U), Role(U, role), role = 'pc-chair'. is_subjects_meeting(U, true) :- User(U), Role(U, isSubjectsMeeting), isSubjectsMeeting = 'true'.",
-    "datalog_actions": "can_perform(U, A) :- User(U), Action(A), has_role(U, 'pc-chair'), is_subjects_meeting(U, true), (A = 'create' ; A = 'read')."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).\nhas_isSubjectsMeeting(U, \"true\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-chair\"), has_isSubjectsMeeting(U, \"true\").\ncan_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-chair\"), has_isSubjectsMeeting(U, \"true\")."
 }</t>
         </is>
       </c>
@@ -7889,8 +7547,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc-chair')."
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc-chair\")."
 }</t>
         </is>
       </c>
@@ -8034,10 +7692,10 @@
       <c r="C140" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), PC_Member(U) :- User(U), role(U, \"pc-member\"), not isConflicted(U, \"true\").",
+    "datalog_subjects": "User(U), PC_Member(U) :- User(U), role(U, \"pc-member\"), isConflicted(U, \"false\").",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "isEq_subjUserId_resUserId(U, R) :- User(U), Resource(R). hasSubmittedReviewForResPaper(U, R) :- User(U), Resource(R). phase(R, \"discussion\") :- Resource(R).",
-    "datalog_actions": "can_read(U, R) :- PC_Member(U), Resource(R), action(R, \"read\"), (isEq_subjUserId_resUserId(U, R); phase(R, \"discussion\"); (isConflicted(U, \"true\"), hasSubmittedReviewForResPaper(U, R)); isConflicted(U, \"true\"))."
+    "datalog_relationships": "isEq_subjUserId_resUserId(U, R) :- User(U), Resource(R), isEq_subjUserId_resUserId_attr(U, R, \"true\"). hasSubmittedReviewForResPaper(U, R) :- User(U), Resource(R), hasSubmittedReviewForResPaper_attr(U, R, \"true\"). phase(R, \"discussion\") :- Resource(R), phase_attr(R, \"discussion\"). isConflicted(U, \"true\") :- User(U), isConflicted_attr(U, \"true\").",
+    "datalog_actions": "can_read(U, R) :- PC_Member(U), Resource(R), action(U, R, \"read\"), (isEq_subjUserId_resUserId(U, R); phase(R, \"discussion\"); (isConflicted(U, \"true\"), hasSubmittedReviewForResPaper(U, R)); isConflicted(U, \"true\"))."
 }</t>
         </is>
       </c>
@@ -8045,9 +7703,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1.1.5" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;Policy PolicyId="RPSlist.19.0.1.1.5.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.19.0.1.1.5.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                             &lt;Target&gt;
 &lt;AnyOf&gt;
     &lt;AllOf&gt;
@@ -8097,8 +7753,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Meeting(M).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).",
-    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), has_role(U, \"pc-member\"), is_meeting(M)."
+    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nismeeting(M) :- Meeting(M).",
+    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), has_role(U, 'pc-member'), ismeeting(M)."
 }</t>
         </is>
       </c>
@@ -8146,10 +7802,10 @@
       <c r="C142" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCMember(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_create(S, R) :- PCMember(S), Resource(R)."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, pc_member) :- Subject(S).",
+    "datalog_actions": "can_access(S, O, create) :- Subject(S), Object(O), has_role(S, pc_member)."
 }</t>
         </is>
       </c>
@@ -8157,9 +7813,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.19.0.1.1.5.3" Version="1.0"&gt;
-                            &lt;Target/&gt;
-                            &lt;Policy PolicyId="RPSlist.19.0.1.1.5.3.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.19.0.1.1.5.3.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
 &lt;Target&gt;
     &lt;AnyOf&gt;
         &lt;AllOf&gt;
@@ -8201,8 +7855,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-chair\")."
+    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair')."
 }</t>
         </is>
       </c>
@@ -8236,7 +7890,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": ""
+    "datalog_actions": "deny_all :- false."
 }</t>
         </is>
       </c>
@@ -8244,22 +7898,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;create&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="action" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20.0.0" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.20.0.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.20.0.0.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -8305,8 +7944,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, 'pc_chair'), U = R."
+    "datalog_relationships": "has_role(U, pc_chair) :- User(U).\nisEq_subjUserId_resUserId(U, true) :- User(U).",
+    "datalog_actions": "can_perform(U, create, R) :- User(U), Resource(R), has_role(U, pc_chair), isEq_subjUserId_resUserId(U, true)."
 }</t>
         </is>
       </c>
@@ -8314,9 +7953,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20.0.0.2" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.20.0.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.20.0.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -8415,10 +8052,10 @@
       <c r="C147" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PCChair(S), SubjectMeeting(M).",
-    "datalog_objects": "Subject(O).",
-    "datalog_relationships": "is_subjects_meeting(S, M) :- PCChair(S), SubjectMeeting(M).",
-    "datalog_actions": "can_read(S, O) :- PCChair(S), Subject(O), SubjectMeeting(M), is_subjects_meeting(S, M)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).\nhas_attribute(U, 'isSubjectsMeeting', 'true') :- User(U).\nhas_attribute(R, 'subject', 'true') :- Resource(R).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair'), has_attribute(U, 'isSubjectsMeeting', 'true'), has_attribute(R, 'subject', 'true')."
 }</t>
         </is>
       </c>
@@ -8472,10 +8109,10 @@
       <c r="C148" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(U, 'pc-chair').",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(U, R, 'create') :- User(U), Resource(R), Role(U, 'pc-chair')."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Action(A).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_perform(U, A) :- User(U), Action(A), has_role(U, 'pc-chair'), A = 'create'."
 }</t>
         </is>
       </c>
@@ -8560,10 +8197,10 @@
       <c r="C149" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "PC_Member(S).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "is_conflicted(S) :- PC_Member(S), attribute(S, 'isConflicted', 'false').\nis_eq_subjUserId_resUserId(S, R) :- PC_Member(S), Resource(R), attribute(S, 'isEq-subjUserId-resUserId', 'true').\nphase_is_discussion(R) :- Resource(R), attribute(R, 'phase', 'discussion').\nhas_submitted_review_for_res_paper(S, R) :- PC_Member(S), Resource(R), attribute(S, 'hassubmittedreviewforrespaper', 'true').",
-    "datalog_actions": "can_read(S, R) :- PC_Member(S), Resource(R), action(R, 'read'), not is_conflicted(S), (is_eq_subjUserId_resUserId(S, R); phase_is_discussion(R); has_submitted_review_for_res_paper(S, R))."
+    "datalog_subjects": "User(U), Role(R), Paper(P).",
+    "datalog_objects": "Paper(P).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).\nis_conflicted(U, P) :- User(U), Paper(P).\nis_eq_subjUserId_resUserId(U, P) :- User(U), Paper(P).\nphase(P, Phase) :- Paper(P).\nhas_submitted_review_for_respaper(U, P) :- User(U), Paper(P).",
+    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-member'), not is_conflicted(U, P), is_eq_subjUserId_resUserId(U, P).\ncan_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-member'), not is_conflicted(U, P), phase(P, 'discussion').\ncan_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-member'), not is_conflicted(U, P), has_submitted_review_for_respaper(U, P)."
 }</t>
         </is>
       </c>
@@ -8571,9 +8208,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20.0.0.2.5" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;Policy PolicyId="RPSlist.20.0.0.2.5.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.20.0.0.2.5.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                             &lt;Target&gt;
 &lt;AnyOf&gt;
     &lt;AllOf&gt;
@@ -8623,8 +8258,8 @@
           <t>{
     "datalog_subjects": "Subject(S).",
     "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).\nhas_conflict(S, O) :- Subject(S), Object(O).",
-    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), has_role(S, 'pc-member'), not has_conflict(S, O)."
+    "datalog_relationships": "has_role(S, \"pc-member\") :- Subject(S).\nhas_conflict(S, \"true\") :- Subject(S).",
+    "datalog_actions": "can_access(S, O, \"read\") :- Subject(S), Object(O), has_role(S, \"pc-member\"), has_conflict(S, \"true\")."
 }</t>
         </is>
       </c>
@@ -8672,10 +8307,10 @@
       <c r="C151" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(R).",
-    "datalog_objects": "Resource(RS).",
-    "datalog_relationships": "has_role(S, R) :- Subject(S), Role(R).",
-    "datalog_actions": "can_access(S, RS, create) :- Subject(S), Resource(RS), has_role(S, pc-member)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).",
+    "datalog_actions": "can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc-member')."
 }</t>
         </is>
       </c>
@@ -8683,9 +8318,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.20.0.0.2.5.3" Version="1.0"&gt;
-                            &lt;Target/&gt;
-                            &lt;Policy PolicyId="RPSlist.20.0.0.2.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.20.0.0.2.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
 &lt;Target&gt;
     &lt;AnyOf&gt;
         &lt;AllOf&gt;
@@ -8731,10 +8364,10 @@
       <c r="C152" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, pc_chair) :- User(U).",
-    "datalog_actions": "can_access(U, R, read) :- User(U), Resource(R), has_role(U, pc_chair). can_access(U, R, create) :- User(U), Resource(R), has_role(U, pc_chair)."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, Action) :- User(U), Resource(Res), Action in {read, create}, has_role(U, pc_chair)."
 }</t>
         </is>
       </c>
@@ -8788,8 +8421,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nhas_attribute(U, \"isMeeting\", \"true\") :- User(U).",
-    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-member\"), has_attribute(U, \"isMeeting\", \"true\")."
+    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nhas_isMeeting(U, 'true') :- User(U).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-member'), has_isMeeting(U, 'true')."
 }</t>
         </is>
       </c>
@@ -8823,7 +8456,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "deny_all :- false."
+    "datalog_actions": ""
 }</t>
         </is>
       </c>
@@ -8831,22 +8464,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;create&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="action" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.21.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.21.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -8902,10 +8520,10 @@
       <c r="C155" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
+    "datalog_subjects": "User(S), Resource(R).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nis_eq_subjUserId_resUserId(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, 'pc-member'), is_eq_subjUserId_resUserId(U, R)."
+    "datalog_relationships": "has_role(S, 'pc-member') :- User(S). is_same_user(S, R) :- User(S), Resource(R).",
+    "datalog_actions": "can_access(S, R, 'create') :- User(S), Resource(R), has_role(S, 'pc-member'), is_same_user(S, R)."
 }</t>
         </is>
       </c>
@@ -8913,9 +8531,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0.2" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.21.0.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.21.0.0.2.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -8953,8 +8569,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).\nnot_conflicted(U) :- User(U).",
-    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, 'pc-chair'), not_conflicted(U)."
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).\nnot_conflicted(U) :- User(U).",
+    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, \"pc-chair\"), not_conflicted(U)."
 }</t>
         </is>
       </c>
@@ -9014,10 +8630,10 @@
       <c r="C157" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(U, R), isSubjectsMeeting(U, SM).",
-    "datalog_objects": "Meeting(M), ismeeting(M, IM).",
-    "datalog_relationships": "",
-    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), Role(U, \"pc-chair\"), isSubjectsMeeting(U, \"true\"), ismeeting(M, \"true\")."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, 'pc-chair') :- Subject(S).\nhas_isSubjectsMeeting(S, 'true') :- Subject(S).\nhas_ismeeting(O, 'true') :- Object(O).",
+    "datalog_actions": "can_read(S, O) :- Subject(S), Object(O), has_role(S, 'pc-chair'), has_isSubjectsMeeting(S, 'true'), has_ismeeting(O, 'true')."
 }</t>
         </is>
       </c>
@@ -9071,10 +8687,10 @@
       <c r="C158" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(U, R).",
-    "datalog_objects": "Action(A).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U), Role(U, 'pc-chair').",
-    "datalog_actions": "can_perform(U, 'create') :- User(U), has_role(U, 'pc-chair')."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Object(O).",
+    "datalog_relationships": "has_role(S, 'pc-chair') :- Subject(S).",
+    "datalog_actions": "can_perform(S, O, 'create') :- Subject(S), Object(O), has_role(S, 'pc-chair')."
 }</t>
         </is>
       </c>
@@ -9151,10 +8767,10 @@
       <c r="C159" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R), Paper(P).",
+    "datalog_subjects": "User(U), Role(R).",
     "datalog_objects": "Paper(P).",
     "datalog_relationships": "has_role(U, R) :- User(U), Role(R).\nis_conflicted(U, P) :- User(U), Paper(P).\nis_eq_subjUserId_resUserId(U, P) :- User(U), Paper(P).\nhas_submitted_review_for_respaper(U, P) :- User(U), Paper(P).",
-    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), has_role(U, \"pc-member\"), not is_conflicted(U, P), is_eq_subjUserId_resUserId(U, P).\ncan_read(U, P) :- User(U), Paper(P), has_role(U, \"pc_chair\"), has_submitted_review_for_respaper(U, P)."
+    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-member'), not is_conflicted(U, P).\ncan_read(U, P) :- User(U), Paper(P), is_eq_subjUserId_resUserId(U, P).\ncan_read(U, P) :- User(U), Paper(P), has_role(U, 'pc_chair'), has_submitted_review_for_respaper(U, P)."
 }</t>
         </is>
       </c>
@@ -9162,11 +8778,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0.2.5" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.21.0.0.2.5.3" Version="1.0"&gt;
-                            &lt;Target/&gt;
-                            &lt;Policy PolicyId="RPSlist.21.0.0.2.5.3.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.21.0.0.2.5.3.2" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
 &lt;Target&gt;
     &lt;AnyOf&gt;
         &lt;AllOf&gt;
@@ -9212,8 +8824,8 @@
           <t>{
     "datalog_subjects": "Subject(S).",
     "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).\nhas_isMeeting(S, 'true') :- Subject(S).",
-    "datalog_actions": "can_read(S, O) :- Subject(S), Object(O), has_role(S, 'pc-member'), has_isMeeting(S, 'true')."
+    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S).\nis_meeting(S, 'true') :- Subject(S).",
+    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), has_role(S, 'pc-member'), is_meeting(S, 'true')."
 }</t>
         </is>
       </c>
@@ -9255,22 +8867,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;true&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="ismeeting" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22.0.0" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.22.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.22.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -9326,10 +8923,10 @@
       <c r="C162" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Meeting(M).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U). is_meeting(M) :- Meeting(M). is_equal_subject_user(U, U) :- User(U).",
-    "datalog_actions": "can_create_meeting(U, M) :- User(U), Meeting(M), has_role(U, 'pc-member'), is_meeting(M), is_equal_subject_user(U, U)."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(S, 'pc-member') :- Subject(S). is_eq_subjUserId_resUserId(S, 'true') :- Subject(S).",
+    "datalog_actions": "can_access(S, R, 'create') :- Subject(S), Resource(R), has_role(S, 'pc-member'), is_eq_subjUserId_resUserId(S, 'true')."
 }</t>
         </is>
       </c>
@@ -9383,8 +8980,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).\nis_subject_user_equal_resource_user(U, R) :- User(U), Resource(R).",
-    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, \"pc_chair\"), is_subject_user_equal_resource_user(U, R)."
+    "datalog_relationships": "has_role(U, pc_chair) :- User(U).\nisEq_subjUserId_resUserId(U, R) :- User(U), Resource(R).",
+    "datalog_actions": "can_create(U, R) :- User(U), Resource(R), has_role(U, pc_chair), isEq_subjUserId_resUserId(U, R)."
 }</t>
         </is>
       </c>
@@ -9392,9 +8989,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22.0.0.2" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.22.0.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.22.0.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -9446,10 +9041,10 @@
       <c r="C164" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(U, \"pc-chair\"), isSubjectsMeeting(U, \"true\").",
-    "datalog_objects": "Resource(R), phase(R, \"discussion\").",
+    "datalog_subjects": "User(U), Role(U, role), IsSubjectsMeeting(U, isSubjectsMeeting).",
+    "datalog_objects": "Resource(R), Phase(R, phase).",
     "datalog_relationships": "",
-    "datalog_actions": "can_read(U, R) :- User(U), Resource(R), Role(U, \"pc-chair\"), isSubjectsMeeting(U, \"true\"), phase(R, \"discussion\")."
+    "datalog_actions": "can_read(U, R) :- User(U), Resource(R), Role(U, 'pc-chair'), IsSubjectsMeeting(U, 'true'), Phase(R, 'discussion')."
 }</t>
         </is>
       </c>
@@ -9586,8 +9181,8 @@
           <t>{
     "datalog_subjects": "User(U), Paper(P).",
     "datalog_objects": "Paper(P).",
-    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nhas_role(U, 'pc_chair') :- User(U).\nis_conflicted(U, P) :- User(U), Paper(P).\nis_eq_subjUserId_resUserId(U, P) :- User(U), Paper(P).\nhas_submitted_review_for_res_paper(U, P) :- User(U), Paper(P).",
-    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-member'), not is_conflicted(U, P), is_eq_subjUserId_resUserId(U, P).\ncan_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-member'), not is_conflicted(U, P), is_conflicted(U, P), has_submitted_review_for_res_paper(U, P).\ncan_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-member'), not is_conflicted(U, P), has_role(U, 'pc_chair').\nnot can_read(U, P) :- User(U), Paper(P), has_role(U, 'pc-member'), not is_conflicted(U, P), not is_eq_subjUserId_resUserId(U, P), not (is_conflicted(U, P), has_submitted_review_for_res_paper(U, P)), not has_role(U, 'pc_chair')."
+    "datalog_relationships": "is_conflicted(U, P) :- User(U), Paper(P).\nhas_submitted_review_for_respaper(U, P) :- User(U), Paper(P).\nis_eq_subjuserid_resuserid(U, P) :- User(U), Paper(P).",
+    "datalog_actions": "can_read(U, P) :- User(U), Paper(P), role(U, \"pc-member\"), not is_conflicted(U, P), action(U, \"read\"), (is_eq_subjuserid_resuserid(U, P); (is_conflicted(U, P), has_submitted_review_for_respaper(U, P)); role(U, \"pc_chair\"))."
 }</t>
         </is>
       </c>
@@ -9595,9 +9190,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22.0.0.2.5" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;Policy PolicyId="RPSlist.22.0.0.2.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.22.0.0.2.5.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                             &lt;Target&gt;
 &lt;AnyOf&gt;
     &lt;AllOf&gt;
@@ -9637,10 +9230,10 @@
       <c r="C167" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, \"pc-chair\") :- Subject(S).",
-    "datalog_actions": "can_access(S, O, \"create\") :- Subject(S), Object(O), has_role(S, \"pc-chair\")."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_create(U, Res) :- User(U), Resource(Res), has_role(U, \"pc-chair\")."
 }</t>
         </is>
       </c>
@@ -9648,9 +9241,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.22.0.0.2.5.3" Version="1.0"&gt;
-                            &lt;Target/&gt;
-                            &lt;Policy PolicyId="RPSlist.22.0.0.2.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.22.0.0.2.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
 &lt;Target&gt;
     &lt;AnyOf&gt;
         &lt;AllOf&gt;
@@ -9696,10 +9287,10 @@
       <c r="C168" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, 'pc_chair') :- Subject(S).",
-    "datalog_actions": "can_access(S, O, 'read') :- Subject(S), Object(O), has_role(S, 'pc_chair'). can_access(S, O, 'create') :- Subject(S), Object(O), has_role(S, 'pc_chair')."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc_chair'). can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc_chair')."
 }</t>
         </is>
       </c>
@@ -9747,10 +9338,10 @@
       <c r="C169" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair')."
+    "datalog_subjects": "Subject(S), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(S, R) :- Subject(S), Role(R).",
+    "datalog_actions": "can_access(S, Res, read) :- Subject(S), Resource(Res), has_role(S, pc-chair)."
 }</t>
         </is>
       </c>
@@ -9839,7 +9430,7 @@
     "datalog_subjects": "",
     "datalog_objects": "",
     "datalog_relationships": "",
-    "datalog_actions": "deny_all :- false."
+    "datalog_actions": ""
 }</t>
         </is>
       </c>
@@ -9847,22 +9438,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;pc_chair&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="role" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0.0" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.23.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.23.0.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -9894,10 +9470,10 @@
       <c r="C172" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
+    "datalog_subjects": "User(U), Role(pc_chair).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, 'pc_chair')."
+    "datalog_relationships": "has_role(U, pc_chair) :- User(U), Role(pc_chair).",
+    "datalog_actions": "can_access(U, R) :- User(U), Resource(R), has_role(U, pc_chair)."
 }</t>
         </is>
       </c>
@@ -9905,9 +9481,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0.0.1" Version="1.0"&gt;
-                    &lt;Target/&gt;
-                    &lt;Policy PolicyId="RPSlist.23.0.0.1.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.23.0.0.1.4" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                         &lt;Target&gt;
                             &lt;AnyOf&gt;
 &lt;AllOf&gt;
@@ -9975,10 +9549,10 @@
       <c r="C173" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(S, 'pc-member'), not isConflicted(S).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "isEq_subjUserId_resUserId(S, O) :- Subject(S), Object(O).",
-    "datalog_actions": "can_read(S, O) :- Subject(S), Object(O), Role(S, 'pc-member'), not isConflicted(S), (isEq_subjUserId_resUserId(S, O); phase(O, 'discussion'))."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).\nhas_attribute(U, isConflicted, false) :- User(U).\nhas_attribute(Res, isEq-subjUserId-resUserId, true) :- Resource(Res).\nhas_attribute(Res, phase, discussion) :- Resource(Res).",
+    "datalog_actions": "can_access(U, read, Res) :- User(U), Resource(Res), Role(pc-member), has_role(U, pc-member), has_attribute(U, isConflicted, false), has_attribute(Res, isEq-subjUserId-resUserId, true).\ncan_access(U, read, Res) :- User(U), Resource(Res), Role(pc-member), has_role(U, pc-member), has_attribute(U, isConflicted, false), has_attribute(Res, phase, discussion).\nnot can_access(U, read, Res) :- User(U), Resource(Res), not (has_role(U, pc-member), has_attribute(U, isConflicted, false), (has_attribute(Res, isEq-subjUserId-resUserId, true); has_attribute(Res, phase, discussion)))."
 }</t>
         </is>
       </c>
@@ -9986,11 +9560,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0.0.1.5" Version="1.0"&gt;
-                        &lt;Target/&gt;
-                        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.23.0.0.1.5.3" Version="1.0"&gt;
-                            &lt;Target/&gt;
-                            &lt;Policy PolicyId="RPSlist.23.0.0.1.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.23.0.0.1.5.3.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
 &lt;Target&gt;
     &lt;AnyOf&gt;
         &lt;AllOf&gt;
@@ -10038,8 +9608,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc_chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc_chair'). can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc_chair')."
+    "datalog_relationships": "has_role(U, \"pc_chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc_chair\").\ncan_access(U, R, \"create\") :- User(U), Resource(R), has_role(U, \"pc_chair\")."
 }</t>
         </is>
       </c>
@@ -10087,10 +9657,10 @@
       <c r="C175" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U), Role(R).",
-    "datalog_objects": "Resource(Res).",
-    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
-    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
+    "datalog_subjects": "User(U).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(U, \"pc-chair\") :- User(U).",
+    "datalog_actions": "can_access(U, R, \"read\") :- User(U), Resource(R), has_role(U, \"pc-chair\")."
 }</t>
         </is>
       </c>
@@ -10144,8 +9714,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Meeting(M).",
-    "datalog_relationships": "has_role(U, \"pc-member\") :- User(U).\nis_meeting(M) :- Meeting(M).",
-    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), has_role(U, \"pc-member\"), is_meeting(M)."
+    "datalog_relationships": "has_role(U, 'pc-member') :- User(U).\nis_meeting(M) :- Meeting(M).",
+    "datalog_actions": "can_read(U, M) :- User(U), Meeting(M), has_role(U, 'pc-member'), is_meeting(M)."
 }</t>
         </is>
       </c>
@@ -10187,20 +9757,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.24" Version="1.0"&gt;
-        &lt;Target&gt;
-            &lt;AnyOf&gt;
-                &lt;AllOf&gt;
-                    &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                        &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;discussion&lt;/AttributeValue&gt;
-                        &lt;AttributeDesignator AttributeId="phase" Category="unknown" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="false"/&gt;
-                    &lt;/Match&gt;
-                &lt;/AllOf&gt;
-            &lt;/AnyOf&gt;
-        &lt;/Target&gt;
-        &lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.24.0" Version="1.0"&gt;
-            &lt;Target/&gt;
-            &lt;Policy PolicyId="RPSlist.24.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.24.0.0" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                 &lt;Target&gt;
                     &lt;AnyOf&gt;
                         &lt;AllOf&gt;
@@ -10248,8 +9805,8 @@
           <t>{
     "datalog_subjects": "User(U).",
     "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).\nhas_phase(R, 'discussion') :- Resource(R).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair'), has_phase(R, 'discussion').\ncan_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc-chair'), has_phase(R, 'discussion')."
+    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
+    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair'). can_access(U, R, 'create') :- User(U), Resource(R), has_role(U, 'pc-chair')."
 }</t>
         </is>
       </c>
@@ -10297,10 +9854,10 @@
       <c r="C179" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), Role(R).",
-    "datalog_objects": "Object(O).",
-    "datalog_relationships": "has_role(S, R) :- Subject(S), Role(R).",
-    "datalog_actions": "can_access(S, O, read) :- Subject(S), Object(O), has_role(S, pc-member)."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-member)."
 }</t>
         </is>
       </c>
@@ -10308,9 +9865,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>&lt;PolicySet PolicyCombiningAlgId="urn:oasis:names:tc:xacml:1.0:policy-combining-algorithm:first-applicable" PolicySetId="RPSlist.24.0.2" Version="1.0"&gt;
-                &lt;Target/&gt;
-                &lt;Policy PolicyId="RPSlist.24.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="RPSlist.24.0.2.1" RuleCombiningAlgId="urn:oasis:names:tc:xacml:1.0:rule-combining-algorithm:first-applicable" Version="1.0"&gt;
                     &lt;Target&gt;
                         &lt;AnyOf&gt;
                             &lt;AllOf&gt;
@@ -10350,10 +9905,10 @@
       <c r="C180" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "User(U).",
-    "datalog_objects": "Resource(R).",
-    "datalog_relationships": "has_role(U, 'pc-chair') :- User(U).",
-    "datalog_actions": "can_access(U, R, 'read') :- User(U), Resource(R), has_role(U, 'pc-chair')."
+    "datalog_subjects": "User(U), Role(R).",
+    "datalog_objects": "Resource(Res).",
+    "datalog_relationships": "has_role(U, R) :- User(U), Role(R).",
+    "datalog_actions": "can_access(U, Res, read) :- User(U), Resource(Res), has_role(U, pc-chair)."
 }</t>
         </is>
       </c>
@@ -10407,7 +9962,7 @@
           <t>{
     "datalog_subjects": "PC_Member(S).",
     "datalog_objects": "Meeting(M).",
-    "datalog_relationships": "",
+    "datalog_relationships": "is_meeting(M) :- Meeting(M).",
     "datalog_actions": "can_read(S, M) :- PC_Member(S), Meeting(M), is_meeting(M)."
 }</t>
         </is>
